--- a/GA_new copy.xlsx
+++ b/GA_new copy.xlsx
@@ -9,7 +9,7 @@
     <sheet name="GAM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -5488,22 +5488,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL78"/>
+  <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="11.6640625" customWidth="1" min="1" max="1"/>
-    <col width="19.5" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.7109375" customWidth="1" min="1" max="1"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="18" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="15.83203125" customWidth="1" min="30" max="30"/>
-    <col width="14.1640625" customWidth="1" min="31" max="31"/>
-    <col width="15.1640625" bestFit="1" customWidth="1" min="35" max="35"/>
-    <col width="18.5" bestFit="1" customWidth="1" min="36" max="36"/>
-    <col width="13.33203125" bestFit="1" customWidth="1" min="37" max="37"/>
+    <col width="15.85546875" customWidth="1" min="30" max="30"/>
+    <col width="14.140625" customWidth="1" min="31" max="31"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="35" max="35"/>
+    <col width="18.42578125" bestFit="1" customWidth="1" min="36" max="36"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" min="37" max="37"/>
     <col width="14" bestFit="1" customWidth="1" min="38" max="38"/>
   </cols>
   <sheetData>
@@ -12174,7 +12174,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="20" t="n">
+      <c r="A78" s="1" t="n">
         <v>45961</v>
       </c>
       <c r="B78" s="9" t="n">
@@ -12248,6 +12248,83 @@
       </c>
       <c r="Y78" s="9" t="n">
         <v>0.0003818342970757541</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="20" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B79" s="9" t="n">
+        <v>0.00802627084</v>
+      </c>
+      <c r="C79" s="9" t="n">
+        <v>0.007401270840000001</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="J79" s="5" t="n">
+        <v>0.07315456346995405</v>
+      </c>
+      <c r="K79" s="5" t="n">
+        <v>0.2005009876862606</v>
+      </c>
+      <c r="L79" s="5" t="n">
+        <v>0.1434832796597323</v>
+      </c>
+      <c r="M79" s="5" t="n">
+        <v>0.17277830062959</v>
+      </c>
+      <c r="N79" s="5" t="n">
+        <v>0.2627975414679831</v>
+      </c>
+      <c r="O79" s="5" t="n">
+        <v>0.1392368053897838</v>
+      </c>
+      <c r="P79" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="5" t="n">
+        <v>0.008048521696696218</v>
+      </c>
+      <c r="R79" s="9" t="n">
+        <v>0.0005871583395918215</v>
+      </c>
+      <c r="S79" s="9" t="n">
+        <v>0.001609275230857433</v>
+      </c>
+      <c r="T79" s="9" t="n">
+        <v>0.001151635663560475</v>
+      </c>
+      <c r="U79" s="9" t="n">
+        <v>0.001386765436128032</v>
+      </c>
+      <c r="V79" s="9" t="n">
+        <v>0.002109284243908164</v>
+      </c>
+      <c r="W79" s="9" t="n">
+        <v>0.001117552310954776</v>
+      </c>
+      <c r="X79" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="9" t="n">
+        <v>6.459961499930018e-05</v>
       </c>
     </row>
   </sheetData>
